--- a/biology/Médecine/Sinus_sphéno-pariétal/Sinus_sphéno-pariétal.xlsx
+++ b/biology/Médecine/Sinus_sphéno-pariétal/Sinus_sphéno-pariétal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sinus_sph%C3%A9no-pari%C3%A9tal</t>
+          <t>Sinus_sphéno-pariétal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sinus sphéno-pariétal (ou sinus de Breschet ou sinus de la petite aile) fait partie des sinus de la dure-mère pairs qui drainent le sang encéphalique vers les veines jugulaires internes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sinus_sph%C3%A9no-pari%C3%A9tal</t>
+          <t>Sinus_sphéno-pariétal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sinus sphéno-pariétal suit le bord postérieur de la petite aile de l'os sphénoïde.
-Il se poursuit par le sinus caverneux[1].
+Il se poursuit par le sinus caverneux.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sinus_sph%C3%A9no-pari%C3%A9tal</t>
+          <t>Sinus_sphéno-pariétal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Zone de drainage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sinus sphéno-pariétal draine la veine cérébrale moyenne superficielle, la veine diploïque temporale antérieure vers le sinus caverneux.
 </t>
